--- a/GE.xlsx
+++ b/GE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Desktop\Projects\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{22582ACA-ED2F-495E-B2E0-223E77A15A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385BEB8-B87E-45F5-93DA-C0A2846D8826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GE" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>MB</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t>100x100</t>
+  </si>
+  <si>
+    <t>150x150</t>
+  </si>
+  <si>
+    <t>200x200</t>
+  </si>
+  <si>
+    <t>250x250</t>
+  </si>
+  <si>
+    <t>300x300</t>
+  </si>
+  <si>
+    <t>350x350</t>
+  </si>
+  <si>
+    <t>400x400</t>
+  </si>
+  <si>
+    <t>450x450</t>
+  </si>
+  <si>
+    <t>500x500</t>
+  </si>
+  <si>
+    <t>550x550</t>
+  </si>
+  <si>
+    <t>600x600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,53 +686,82 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>GE!$A$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50x50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>150x150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>250x250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>350x350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>450x450</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
+                  <c:v>550x550</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>600x600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -787,7 +855,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Número de celdas totales</a:t>
+                  <a:t>Dimensiones del mapa</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -889,7 +957,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -921,7 +989,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1028,7 +1096,545 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Consumo en memoria del Autómata Celular</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="57000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6014873140857393E-2"/>
+                  <c:y val="-1.4305555555555556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>GE!$A$5:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150x150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200x200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250x250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300x300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350x350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400x400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450x450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500x500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550x550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600x600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GE!$A$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>470.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F35-4349-B26B-42BB6299A304}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1119640816"/>
+        <c:axId val="1119638896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1119640816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Dimensiones del mapa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119638896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1119638896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119640816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1584,20 +2190,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:colOff>776605</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>622935</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>575945</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1617,6 +2739,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AF94E5-00C4-52E6-9E96-30EE539E1404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1941,51 +3099,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>50</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-      <c r="C1">
-        <v>150</v>
-      </c>
-      <c r="D1">
-        <v>200</v>
-      </c>
-      <c r="E1">
-        <v>250</v>
-      </c>
-      <c r="F1">
-        <v>300</v>
-      </c>
-      <c r="G1">
-        <v>350</v>
-      </c>
-      <c r="H1">
-        <v>400</v>
-      </c>
-      <c r="I1">
-        <v>450</v>
-      </c>
-      <c r="J1">
-        <v>500</v>
-      </c>
-      <c r="K1">
-        <v>550</v>
-      </c>
-      <c r="L1">
-        <v>600</v>
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2027,41 +3185,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>250</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-      <c r="G5">
-        <v>350</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
-      </c>
-      <c r="I5">
-        <v>450</v>
-      </c>
-      <c r="J5">
-        <v>500</v>
-      </c>
-      <c r="K5">
-        <v>550</v>
-      </c>
-      <c r="L5">
-        <v>600</v>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2074,8 +3232,52 @@
       <c r="C6">
         <v>36.4</v>
       </c>
+      <c r="D6">
+        <v>72.5</v>
+      </c>
+      <c r="E6">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="F6">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="G6">
+        <v>470.1</v>
+      </c>
+      <c r="H6">
+        <v>810</v>
+      </c>
+      <c r="I6">
+        <v>1280</v>
+      </c>
+      <c r="J6">
+        <v>1810</v>
+      </c>
+      <c r="K6">
+        <v>2540</v>
+      </c>
+      <c r="L6">
+        <v>3300</v>
+      </c>
       <c r="M6" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
